--- a/xlsx/omsk.xlsx
+++ b/xlsx/omsk.xlsx
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2587900</v>
+        <v>2119000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>2587900</v>
+        <v>2119000</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>

--- a/xlsx/omsk.xlsx
+++ b/xlsx/omsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K460"/>
+  <dimension ref="A1:K461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16174,7 +16174,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -16207,40 +16207,40 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Grand Vitara 3d</t>
+          <t>S09</t>
         </is>
       </c>
       <c r="D412" t="n">
-        <v>1599900</v>
+        <v>2050000</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/grand-vitara-3d</t>
+          <t>https://spb.carso.ru/soueast/s09</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>1599900</v>
+        <v>2050000</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/grand-vitara-3d</t>
+          <t>https://spb.carso.ru/soueast/s09</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>953</t>
+          <t>954</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -16250,30 +16250,30 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Grand Vitara 5d</t>
+          <t>Grand Vitara 3d</t>
         </is>
       </c>
       <c r="D413" t="n">
-        <v>1764900</v>
+        <v>1599900</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/tiggo-4</t>
+          <t>https://spb.carso.ru/suzuki/grand-vitara-3d</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>1764900</v>
+        <v>1599900</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/tiggo-4</t>
+          <t>https://spb.carso.ru/suzuki/grand-vitara-3d</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>953</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -16283,30 +16283,30 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Jimny</t>
+          <t>Grand Vitara 5d</t>
         </is>
       </c>
       <c r="D414" t="n">
-        <v>1485000</v>
+        <v>1764900</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/jimny-fl</t>
+          <t>https://spb.carso.ru/suzuki/tiggo-4</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>1485000</v>
+        <v>1764900</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/jimny-fl</t>
+          <t>https://spb.carso.ru/suzuki/tiggo-4</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -16316,30 +16316,30 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Jimny</t>
         </is>
       </c>
       <c r="D415" t="n">
-        <v>1959000</v>
+        <v>1485000</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/sx4</t>
+          <t>https://spb.carso.ru/suzuki/jimny-fl</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>1959000</v>
+        <v>1485000</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/sx4</t>
+          <t>https://spb.carso.ru/suzuki/jimny-fl</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -16349,30 +16349,30 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D416" t="n">
-        <v>1429000</v>
+        <v>1959000</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/vitara</t>
+          <t>https://spb.carso.ru/suzuki/sx4</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>1429000</v>
+        <v>1959000</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/vitara</t>
+          <t>https://spb.carso.ru/suzuki/sx4</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -16382,30 +16382,30 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Vitara New</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D417" t="n">
-        <v>1789000</v>
+        <v>1429000</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/vitara-new</t>
+          <t>https://spb.carso.ru/suzuki/vitara</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>1789000</v>
+        <v>1429000</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/vitara-new</t>
+          <t>https://spb.carso.ru/suzuki/vitara</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>609</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -16415,81 +16415,63 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Vitara S</t>
+          <t>Vitara New</t>
         </is>
       </c>
       <c r="D418" t="n">
-        <v>1859000</v>
+        <v>1789000</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/vitara-s</t>
+          <t>https://spb.carso.ru/suzuki/vitara-new</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>1859000</v>
+        <v>1789000</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/suzuki/vitara-s</t>
+          <t>https://spb.carso.ru/suzuki/vitara-new</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>955</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Vitara S</t>
         </is>
       </c>
       <c r="D419" t="n">
-        <v>2519400</v>
+        <v>1859000</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/tank/tank_300</t>
-        </is>
-      </c>
-      <c r="F419" t="n">
-        <v>3739000</v>
-      </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/tank-300/</t>
-        </is>
-      </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2519400</t>
-        </is>
-      </c>
-      <c r="I419" t="inlineStr">
-        <is>
-          <t>https://omsk-cars.ru/catalog/tank/tank_300</t>
+          <t>https://spb.carso.ru/suzuki/vitara-s</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>2665000</v>
+        <v>1859000</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/tank/300</t>
+          <t>https://spb.carso.ru/suzuki/vitara-s</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -16499,30 +16481,48 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D420" t="n">
-        <v>3565000</v>
+        <v>2519400</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/tank/400</t>
+          <t>https://omsk-cars.ru/catalog/tank/tank_300</t>
+        </is>
+      </c>
+      <c r="F420" t="n">
+        <v>3739000</v>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>https://irtysh-avtosalon.ru/new_auto/tank-300/</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>2519400</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>https://omsk-cars.ru/catalog/tank/tank_300</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>3565000</v>
+        <v>2665000</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/tank/400</t>
+          <t>https://spb.carso.ru/tank/300</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -16532,48 +16532,30 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D421" t="n">
-        <v>3899400</v>
+        <v>3565000</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/tank/tank_500</t>
-        </is>
-      </c>
-      <c r="F421" t="n">
-        <v>5099000</v>
-      </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/tank-500/</t>
-        </is>
-      </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>3899400</t>
-        </is>
-      </c>
-      <c r="I421" t="inlineStr">
-        <is>
-          <t>https://omsk-cars.ru/catalog/tank/tank_500</t>
+          <t>https://spb.carso.ru/tank/400</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>4639000</v>
+        <v>3565000</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/tank/500</t>
+          <t>https://spb.carso.ru/tank/400</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -16583,63 +16565,81 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D422" t="n">
-        <v>8199000</v>
+        <v>3899400</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/tank/700</t>
+          <t>https://omsk-cars.ru/catalog/tank/tank_500</t>
+        </is>
+      </c>
+      <c r="F422" t="n">
+        <v>5099000</v>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>https://irtysh-avtosalon.ru/new_auto/tank-500/</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>3899400</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>https://omsk-cars.ru/catalog/tank/tank_500</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>8199000</v>
+        <v>4639000</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/tank/700</t>
+          <t>https://spb.carso.ru/tank/500</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Alphard</t>
+          <t>700</t>
         </is>
       </c>
       <c r="D423" t="n">
-        <v>7674000</v>
+        <v>8199000</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/alphard</t>
+          <t>https://spb.carso.ru/tank/700</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>7674000</v>
+        <v>8199000</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/alphard</t>
+          <t>https://spb.carso.ru/tank/700</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>616</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -16649,30 +16649,30 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Auris</t>
+          <t>Alphard</t>
         </is>
       </c>
       <c r="D424" t="n">
-        <v>1522900</v>
+        <v>7674000</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/auris</t>
+          <t>https://spb.carso.ru/toyota/alphard</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>1522900</v>
+        <v>7674000</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/auris</t>
+          <t>https://spb.carso.ru/toyota/alphard</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>956</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -16682,40 +16682,30 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>CH-R</t>
+          <t>Auris</t>
         </is>
       </c>
       <c r="D425" t="n">
-        <v>1931000</v>
+        <v>1522900</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/toyota/c-hr_2019</t>
-        </is>
-      </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>1931000</t>
-        </is>
-      </c>
-      <c r="I425" t="inlineStr">
-        <is>
-          <t>https://omsk-cars.ru/catalog/toyota/c-hr_2019</t>
+          <t>https://spb.carso.ru/toyota/auris</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>2580000</v>
+        <v>1522900</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/c-hr</t>
+          <t>https://spb.carso.ru/toyota/auris</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -16725,40 +16715,40 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Camry</t>
+          <t>CH-R</t>
         </is>
       </c>
       <c r="D426" t="n">
-        <v>1798000</v>
+        <v>1931000</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/toyota/camry_21</t>
+          <t>https://omsk-cars.ru/catalog/toyota/c-hr_2019</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>1798000</t>
+          <t>1931000</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/toyota/camry_21</t>
+          <t>https://omsk-cars.ru/catalog/toyota/c-hr_2019</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>2643000</v>
+        <v>2580000</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/camry-new</t>
+          <t>https://spb.carso.ru/toyota/c-hr</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -16768,40 +16758,40 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Corolla</t>
+          <t>Camry</t>
         </is>
       </c>
       <c r="D427" t="n">
-        <v>1255000</v>
+        <v>1798000</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/toyota/Corolla_2019</t>
+          <t>https://omsk-cars.ru/catalog/toyota/camry_21</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>1255000</t>
+          <t>1798000</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/toyota/Corolla_2019</t>
+          <t>https://omsk-cars.ru/catalog/toyota/camry_21</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>1935000</v>
+        <v>2643000</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/corolla</t>
+          <t>https://spb.carso.ru/toyota/camry-new</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -16811,40 +16801,40 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="D428" t="n">
-        <v>3064000</v>
+        <v>1255000</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/toyota/fortuner_2020</t>
+          <t>https://omsk-cars.ru/catalog/toyota/Corolla_2019</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>3064000</t>
+          <t>1255000</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/toyota/fortuner_2020</t>
+          <t>https://omsk-cars.ru/catalog/toyota/Corolla_2019</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>4194000</v>
+        <v>1935000</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/fortuner</t>
+          <t>https://spb.carso.ru/toyota/corolla</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -16854,30 +16844,40 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Hiace</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D429" t="n">
-        <v>4983000</v>
+        <v>3064000</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/hiace</t>
+          <t>https://omsk-cars.ru/catalog/toyota/fortuner_2020</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>3064000</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>https://omsk-cars.ru/catalog/toyota/fortuner_2020</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>4983000</v>
+        <v>4194000</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/hiace</t>
+          <t>https://spb.carso.ru/toyota/fortuner</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>888</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -16887,40 +16887,30 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Hiace</t>
         </is>
       </c>
       <c r="D430" t="n">
-        <v>4559000</v>
+        <v>4983000</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/toyota/highlander_20</t>
-        </is>
-      </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>4559000</t>
-        </is>
-      </c>
-      <c r="I430" t="inlineStr">
-        <is>
-          <t>https://omsk-cars.ru/catalog/toyota/highlander_20</t>
+          <t>https://spb.carso.ru/toyota/hiace</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>5801000</v>
+        <v>4983000</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/highlander</t>
+          <t>https://spb.carso.ru/toyota/hiace</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -16930,40 +16920,40 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D431" t="n">
-        <v>2941000</v>
+        <v>4559000</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/toyota/hilux_20</t>
+          <t>https://omsk-cars.ru/catalog/toyota/highlander_20</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>2941000</t>
+          <t>4559000</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/toyota/hilux_20</t>
+          <t>https://omsk-cars.ru/catalog/toyota/highlander_20</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>6272000</v>
+        <v>5801000</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/hilux</t>
+          <t>https://spb.carso.ru/toyota/highlander</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -16973,30 +16963,40 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Land Cruiser 200</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D432" t="n">
-        <v>11815000</v>
+        <v>2941000</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/land-cruiser-200</t>
+          <t>https://omsk-cars.ru/catalog/toyota/hilux_20</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>2941000</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>https://omsk-cars.ru/catalog/toyota/hilux_20</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>11815000</v>
+        <v>6272000</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/land-cruiser-200</t>
+          <t>https://spb.carso.ru/toyota/hilux</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>889</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -17006,40 +17006,30 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Land Cruiser 200</t>
         </is>
       </c>
       <c r="D433" t="n">
-        <v>3251000</v>
+        <v>11815000</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/toyota/land_cruiser_prado_2017</t>
-        </is>
-      </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3251000</t>
-        </is>
-      </c>
-      <c r="I433" t="inlineStr">
-        <is>
-          <t>https://omsk-cars.ru/catalog/toyota/land_cruiser_prado_2017</t>
+          <t>https://spb.carso.ru/toyota/land-cruiser-200</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>5492000</v>
+        <v>11815000</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/land-cruiser-prado</t>
+          <t>https://spb.carso.ru/toyota/land-cruiser-200</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -17049,30 +17039,40 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Prius</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D434" t="n">
-        <v>2632000</v>
+        <v>3251000</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/prius</t>
+          <t>https://omsk-cars.ru/catalog/toyota/land_cruiser_prado_2017</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>3251000</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>https://omsk-cars.ru/catalog/toyota/land_cruiser_prado_2017</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>2632000</v>
+        <v>5492000</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/prius</t>
+          <t>https://spb.carso.ru/toyota/land-cruiser-prado</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>959</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -17082,40 +17082,30 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Prius</t>
         </is>
       </c>
       <c r="D435" t="n">
-        <v>1971000</v>
+        <v>2632000</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/toyota/Rav4_2019</t>
-        </is>
-      </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>1971000</t>
-        </is>
-      </c>
-      <c r="I435" t="inlineStr">
-        <is>
-          <t>https://omsk-cars.ru/catalog/toyota/Rav4_2019</t>
+          <t>https://spb.carso.ru/toyota/prius</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>3109000</v>
+        <v>2632000</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/rav4</t>
+          <t>https://spb.carso.ru/toyota/prius</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -17125,30 +17115,40 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Venza</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D436" t="n">
-        <v>2767000</v>
+        <v>1971000</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/venza</t>
+          <t>https://omsk-cars.ru/catalog/toyota/Rav4_2019</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>1971000</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>https://omsk-cars.ru/catalog/toyota/Rav4_2019</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>2767000</v>
+        <v>3109000</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/venza</t>
+          <t>https://spb.carso.ru/toyota/rav4</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>957</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -17158,63 +17158,63 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Verso</t>
+          <t>Venza</t>
         </is>
       </c>
       <c r="D437" t="n">
-        <v>1603200</v>
+        <v>2767000</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/verso</t>
+          <t>https://spb.carso.ru/toyota/venza</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>1603200</v>
+        <v>2767000</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/toyota/verso</t>
+          <t>https://spb.carso.ru/toyota/venza</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>958</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Verso</t>
         </is>
       </c>
       <c r="D438" t="n">
-        <v>1208000</v>
+        <v>1603200</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/uaz-hunter/</t>
-        </is>
-      </c>
-      <c r="F438" t="n">
-        <v>1208000</v>
-      </c>
-      <c r="G438" t="inlineStr">
-        <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/uaz-hunter/</t>
+          <t>https://spb.carso.ru/toyota/verso</t>
+        </is>
+      </c>
+      <c r="J438" t="n">
+        <v>1603200</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>https://spb.carso.ru/toyota/verso</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -17224,63 +17224,63 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D439" t="n">
-        <v>1062000</v>
+        <v>1208000</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/uaz-patriot-new/</t>
+          <t>https://irtysh-avtosalon.ru/new_auto/uaz-hunter/</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>1062000</v>
+        <v>1208000</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/uaz-patriot-new/</t>
+          <t>https://irtysh-avtosalon.ru/new_auto/uaz-hunter/</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D440" t="n">
-        <v>2874000</v>
+        <v>1062000</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/arteon</t>
-        </is>
-      </c>
-      <c r="J440" t="n">
-        <v>2874000</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>https://spb.carso.ru/volkswagen/arteon</t>
+          <t>https://irtysh-avtosalon.ru/new_auto/uaz-patriot-new/</t>
+        </is>
+      </c>
+      <c r="F440" t="n">
+        <v>1062000</v>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>https://irtysh-avtosalon.ru/new_auto/uaz-patriot-new/</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -17290,30 +17290,30 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Golf</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="D441" t="n">
-        <v>1517000</v>
+        <v>2874000</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/golf-old</t>
+          <t>https://spb.carso.ru/volkswagen/arteon</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>1517000</v>
+        <v>2874000</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/golf-old</t>
+          <t>https://spb.carso.ru/volkswagen/arteon</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -17323,30 +17323,30 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Golf New</t>
+          <t>Golf</t>
         </is>
       </c>
       <c r="D442" t="n">
-        <v>3148000</v>
+        <v>1517000</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/golf-new</t>
+          <t>https://spb.carso.ru/volkswagen/golf-old</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>3148000</v>
+        <v>1517000</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/golf-new</t>
+          <t>https://spb.carso.ru/volkswagen/golf-old</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -17356,40 +17356,30 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Golf New</t>
         </is>
       </c>
       <c r="D443" t="n">
-        <v>910800</v>
+        <v>3148000</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>910800</t>
-        </is>
-      </c>
-      <c r="I443" t="inlineStr">
-        <is>
-          <t>https://omsk-cars.ru/catalog/volkswagen/jetta</t>
+          <t>https://spb.carso.ru/volkswagen/golf-new</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>1365000</v>
+        <v>3148000</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/jetta</t>
+          <t>https://spb.carso.ru/volkswagen/golf-new</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -17399,38 +17389,40 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Jetta New</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D444" t="n">
-        <v>1218000</v>
+        <v>910800</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-jetta-new/</t>
-        </is>
-      </c>
-      <c r="F444" t="n">
-        <v>1218000</v>
-      </c>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-jetta-new/</t>
+          <t>https://omsk-cars.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>910800</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>https://omsk-cars.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>1398000</v>
+        <v>1365000</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/jetta-new</t>
+          <t>https://spb.carso.ru/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -17440,30 +17432,38 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta New</t>
         </is>
       </c>
       <c r="D445" t="n">
-        <v>2421900</v>
+        <v>1218000</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/passat</t>
+          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-jetta-new/</t>
+        </is>
+      </c>
+      <c r="F445" t="n">
+        <v>1218000</v>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-jetta-new/</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>2421900</v>
+        <v>1398000</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/passat</t>
+          <t>https://spb.carso.ru/volkswagen/jetta-new</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -17473,30 +17473,30 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Passat Alltrack New</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D446" t="n">
-        <v>3484900</v>
+        <v>2421900</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/passat-alltrack</t>
+          <t>https://spb.carso.ru/volkswagen/passat</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>3484900</v>
+        <v>2421900</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/passat-alltrack</t>
+          <t>https://spb.carso.ru/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -17506,30 +17506,30 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Passat CC</t>
+          <t>Passat Alltrack New</t>
         </is>
       </c>
       <c r="D447" t="n">
-        <v>2108200</v>
+        <v>3484900</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/passat-cc</t>
+          <t>https://spb.carso.ru/volkswagen/passat-alltrack</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>2108200</v>
+        <v>3484900</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/passat-cc</t>
+          <t>https://spb.carso.ru/volkswagen/passat-alltrack</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>960</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -17539,38 +17539,30 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Passat New</t>
+          <t>Passat CC</t>
         </is>
       </c>
       <c r="D448" t="n">
-        <v>2323000</v>
+        <v>2108200</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-passat-new/</t>
-        </is>
-      </c>
-      <c r="F448" t="n">
-        <v>2323000</v>
-      </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-passat-new/</t>
+          <t>https://spb.carso.ru/volkswagen/passat-cc</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>2808000</v>
+        <v>2108200</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/passatb8</t>
+          <t>https://spb.carso.ru/volkswagen/passat-cc</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -17580,30 +17572,38 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Passat Variant</t>
+          <t>Passat New</t>
         </is>
       </c>
       <c r="D449" t="n">
-        <v>2449000</v>
+        <v>2323000</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/passat-variant</t>
+          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-passat-new/</t>
+        </is>
+      </c>
+      <c r="F449" t="n">
+        <v>2323000</v>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-passat-new/</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>2449000</v>
+        <v>2808000</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/passat-variant</t>
+          <t>https://spb.carso.ru/volkswagen/passatb8</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>961</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -17613,30 +17613,30 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat Variant</t>
         </is>
       </c>
       <c r="D450" t="n">
-        <v>916900</v>
+        <v>2449000</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/polo</t>
+          <t>https://spb.carso.ru/volkswagen/passat-variant</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>916900</v>
+        <v>2449000</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/polo</t>
+          <t>https://spb.carso.ru/volkswagen/passat-variant</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -17646,48 +17646,30 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D451" t="n">
-        <v>831540</v>
+        <v>916900</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="F451" t="n">
-        <v>1072400</v>
-      </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-new-polo/</t>
-        </is>
-      </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>831540</t>
-        </is>
-      </c>
-      <c r="I451" t="inlineStr">
-        <is>
-          <t>https://omsk-cars.ru/catalog/volkswagen/polo_new</t>
+          <t>https://spb.carso.ru/volkswagen/polo</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>1077400</v>
+        <v>916900</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/polo-new</t>
+          <t>https://spb.carso.ru/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -17697,48 +17679,48 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D452" t="n">
-        <v>1464000</v>
+        <v>831540</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-taos/</t>
+          <t>https://omsk-cars.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>1464000</v>
+        <v>1072400</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-taos/</t>
+          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-new-polo/</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>1697340</t>
+          <t>831540</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/volkswagen/taos</t>
+          <t>https://omsk-cars.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>1858900</v>
+        <v>1077400</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/taos</t>
+          <t>https://spb.carso.ru/volkswagen/polo-new</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -17748,30 +17730,48 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D453" t="n">
-        <v>3544000</v>
+        <v>1464000</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/teramont</t>
+          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-taos/</t>
+        </is>
+      </c>
+      <c r="F453" t="n">
+        <v>1464000</v>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-taos/</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>1697340</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>https://omsk-cars.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>3544000</v>
+        <v>1858900</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/teramont</t>
+          <t>https://spb.carso.ru/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -17781,40 +17781,30 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D454" t="n">
-        <v>1280940</v>
+        <v>3544000</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>https://omsk-cars.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>1280940</t>
-        </is>
-      </c>
-      <c r="I454" t="inlineStr">
-        <is>
-          <t>https://omsk-cars.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://spb.carso.ru/volkswagen/teramont</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>1649000</v>
+        <v>3544000</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/tiguan-old</t>
+          <t>https://spb.carso.ru/volkswagen/teramont</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -17824,38 +17814,40 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D455" t="n">
-        <v>1814900</v>
+        <v>1280940</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/tiguan-new</t>
-        </is>
-      </c>
-      <c r="F455" t="n">
-        <v>1834900</v>
-      </c>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-tiguan-new/</t>
+          <t>https://omsk-cars.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>1280940</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>https://omsk-cars.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>1814900</v>
+        <v>1649000</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/tiguan-new</t>
+          <t>https://spb.carso.ru/volkswagen/tiguan-old</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -17865,63 +17857,71 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Touareg</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D456" t="n">
-        <v>3349000</v>
+        <v>1814900</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/touareg-old</t>
+          <t>https://spb.carso.ru/volkswagen/tiguan-new</t>
+        </is>
+      </c>
+      <c r="F456" t="n">
+        <v>1834900</v>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>https://irtysh-avtosalon.ru/new_auto/volkswagen-tiguan-new/</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>3349000</v>
+        <v>1814900</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/touareg-old</t>
+          <t>https://spb.carso.ru/volkswagen/tiguan-new</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>659</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>Touareg</t>
         </is>
       </c>
       <c r="D457" t="n">
-        <v>1450000</v>
+        <v>3349000</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/xcite/x-cross-7</t>
+          <t>https://spb.carso.ru/volkswagen/touareg-old</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>1450000</v>
+        <v>3349000</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/xcite/x-cross-7</t>
+          <t>https://spb.carso.ru/volkswagen/touareg-old</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -17931,123 +17931,156 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>X-Cross 8</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D458" t="n">
-        <v>1770000</v>
+        <v>1450000</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/xcite/x-cross-8</t>
+          <t>https://spb.carso.ru/xcite/x-cross-7</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>1770000</v>
+        <v>1450000</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/xcite/x-cross-8</t>
+          <t>https://spb.carso.ru/xcite/x-cross-7</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X-Cross 8</t>
         </is>
       </c>
       <c r="D459" t="n">
-        <v>809600</v>
+        <v>1770000</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="F459" t="n">
-        <v>1079600</v>
-      </c>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>https://irtysh-avtosalon.ru/new_auto/zotye-coupa/</t>
-        </is>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>968000</t>
-        </is>
-      </c>
-      <c r="I459" t="inlineStr">
-        <is>
-          <t>https://omsk-cars.ru/catalog/zotye/coupa</t>
+          <t>https://spb.carso.ru/xcite/x-cross-8</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>809600</v>
+        <v>1770000</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/zotye/coupa</t>
+          <t>https://spb.carso.ru/xcite/x-cross-8</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>809600</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>https://spb.carso.ru/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F460" t="n">
+        <v>1079600</v>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>https://irtysh-avtosalon.ru/new_auto/zotye-coupa/</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>968000</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>https://omsk-cars.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="J460" t="n">
+        <v>809600</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>https://spb.carso.ru/zotye/coupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B460" t="inlineStr">
+      <c r="B461" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr">
+      <c r="C461" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D460" t="n">
+      <c r="D461" t="n">
         <v>651600</v>
       </c>
-      <c r="E460" t="inlineStr">
+      <c r="E461" t="inlineStr">
         <is>
           <t>https://spb.carso.ru/zotye/t600</t>
         </is>
       </c>
-      <c r="F460" t="n">
+      <c r="F461" t="n">
         <v>861600</v>
       </c>
-      <c r="G460" t="inlineStr">
+      <c r="G461" t="inlineStr">
         <is>
           <t>https://irtysh-avtosalon.ru/new_auto/zotye-t600/</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
+      <c r="H461" t="inlineStr">
         <is>
           <t>770000</t>
         </is>
       </c>
-      <c r="I460" t="inlineStr">
+      <c r="I461" t="inlineStr">
         <is>
           <t>https://omsk-cars.ru/catalog/zotye/t600</t>
         </is>
       </c>
-      <c r="J460" t="n">
+      <c r="J461" t="n">
         <v>651600</v>
       </c>
-      <c r="K460" t="inlineStr">
+      <c r="K461" t="inlineStr">
         <is>
           <t>https://spb.carso.ru/zotye/t600</t>
         </is>
